--- a/MarsFramework/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/MarsFramework/ExcelData/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhushan\Desktop\Stdtask\Stdtask\MarsFramework\MarsFramework\ExcelData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3404AC86-053A-489E-B109-D0A116E27E47}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="14355" windowHeight="4950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -27,15 +33,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
-    <t>hari7chandana@gmail.com</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -108,23 +105,32 @@
     <t>ConfirmPswd</t>
   </si>
   <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>hhhari@gmail.com</t>
-  </si>
-  <si>
-    <t>******</t>
+    <t>http://192.168.99.100:5000/</t>
+  </si>
+  <si>
+    <t>bhushanru@gmail.com</t>
+  </si>
+  <si>
+    <t>bhubhu</t>
+  </si>
+  <si>
+    <t>Uma</t>
+  </si>
+  <si>
+    <t>Maheswaran</t>
+  </si>
+  <si>
+    <t>umamahesh@gmail.com</t>
+  </si>
+  <si>
+    <t>umauma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,12 +140,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -176,11 +176,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -188,6 +187,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +273,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +325,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -491,24 +534,24 @@
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -527,28 +570,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,22 +602,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{1F848759-023D-47E5-923A-7F59758AD836}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -582,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
@@ -601,68 +644,68 @@
     <col min="10" max="10" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
